--- a/GradesCalculator/DB/GradesDatabase6300.xlsx
+++ b/GradesCalculator/DB/GradesDatabase6300.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="StudentsInfo" sheetId="1" r:id="rId1"/>
@@ -411,7 +411,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -455,6 +455,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -819,15 +828,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="17" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="2.6640625" customWidth="1"/>
     <col min="5" max="5" width="7.5" customWidth="1"/>
@@ -839,7 +848,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -862,7 +871,7 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="15">
         <v>901234501</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -885,7 +894,7 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="15">
         <v>901234502</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -905,7 +914,7 @@
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="15">
         <v>901234503</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -928,7 +937,7 @@
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="15">
         <v>901234504</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -951,7 +960,7 @@
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="15">
         <v>901234505</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -974,7 +983,7 @@
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="15">
         <v>901234506</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -997,7 +1006,7 @@
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="15">
         <v>901234507</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1020,7 +1029,7 @@
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="15">
         <v>901234508</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1043,7 +1052,7 @@
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="15">
         <v>901234509</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1063,7 +1072,7 @@
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="15">
         <v>901234510</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1083,7 +1092,7 @@
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="15">
         <v>901234511</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1106,7 +1115,7 @@
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="15">
         <v>901234512</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1126,7 +1135,7 @@
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="15">
         <v>901234513</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1149,7 +1158,7 @@
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="15">
         <v>901234514</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1303,7 +1312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
